--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -2,16 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" r:id="rId1"/>
     <sheet name="CONTENT_GENERATOR" sheetId="2" r:id="rId2"/>
     <sheet name="FEEDBACK_TOOL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TASK!$C$3:$C$44</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,10 +244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,21 +529,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A3:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="E23" sqref="E23:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -556,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -573,7 +584,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -590,7 +601,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -607,7 +618,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -624,7 +635,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -635,13 +646,13 @@
         <v>47</v>
       </c>
       <c r="E8" s="2">
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="F8" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -655,7 +666,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -663,13 +674,13 @@
         <v>42</v>
       </c>
       <c r="E10" s="2">
-        <v>44281</v>
+        <v>44288</v>
       </c>
       <c r="F10" s="2">
-        <v>44283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -680,69 +691,69 @@
         <v>48</v>
       </c>
       <c r="E11" s="2">
-        <v>44277</v>
+        <v>44288</v>
       </c>
       <c r="F11" s="2">
-        <v>44279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="2">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="F12" s="2">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2">
-        <v>44278</v>
+        <v>44292</v>
       </c>
       <c r="F13" s="2">
-        <v>44279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="2">
-        <v>44280</v>
+        <v>44293</v>
       </c>
       <c r="F14" s="2">
-        <v>44281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -751,10 +762,10 @@
         <v>44280</v>
       </c>
       <c r="F15" s="2">
-        <v>44280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -771,7 +782,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -788,7 +799,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -805,7 +816,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -822,7 +833,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -839,7 +850,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -856,7 +867,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -866,8 +877,14 @@
       <c r="D22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>44297</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -877,8 +894,10 @@
       <c r="D23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -888,8 +907,10 @@
       <c r="D24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -899,8 +920,10 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -910,8 +933,10 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -921,8 +946,10 @@
       <c r="D27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -933,7 +960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -944,7 +971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -955,7 +982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -965,8 +992,10 @@
       <c r="D31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -977,7 +1006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -987,8 +1016,10 @@
       <c r="D33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -998,8 +1029,10 @@
       <c r="D34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1010,7 +1043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -1032,7 +1065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>51</v>
       </c>
@@ -1053,8 +1086,10 @@
       <c r="D39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1064,8 +1099,10 @@
       <c r="D40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1076,22 +1113,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C3:C44">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="David y Rolando"/>
+        <filter val="Rolando"/>
+        <filter val="Rolando (Dar Tareas a David)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1103,7 +1149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1117,7 +1163,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -532,8 +532,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +650,9 @@
       </c>
       <c r="F8" s="2">
         <v>44257</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,11 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +542,7 @@
   <dimension ref="A3:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +725,9 @@
       <c r="F12" s="2">
         <v>44293</v>
       </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -733,6 +745,7 @@
       <c r="F13" s="2">
         <v>44293</v>
       </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A3:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>44293</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -832,7 +832,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -849,7 +849,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -866,7 +866,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -883,7 +883,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -912,8 +912,11 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -939,7 +942,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -952,7 +955,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -965,7 +968,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -976,7 +979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -987,7 +990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1014,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>37</v>
       </c>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -726,7 +726,7 @@
         <v>44293</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,6 +898,9 @@
       </c>
       <c r="F22" s="2">
         <v>44300</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -928,6 +931,9 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
+      <c r="G24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -195,13 +195,28 @@
   </si>
   <si>
     <t>Investigar como logear a un usuario desde Facebook, Gmail, LinkedInd</t>
+  </si>
+  <si>
+    <t>Dionis</t>
+  </si>
+  <si>
+    <t>Crear CRUD en Backed para "Crear Encuesta"</t>
+  </si>
+  <si>
+    <t>Implementar en el backed de la inserción automática de Crear Encuesta</t>
+  </si>
+  <si>
+    <t>Diseñar e Implementar Interfaz gráfica de "Crear Encuesta"</t>
+  </si>
+  <si>
+    <t>Integrar servicios del Backed y el FrontEnd para "Crear Encuesta"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +236,29 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,12 +290,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,21 +580,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A3:G44"/>
+  <dimension ref="A3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -576,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -593,7 +634,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -610,7 +651,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -627,7 +668,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -644,7 +685,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -664,7 +705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -678,7 +719,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -692,7 +733,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -709,8 +750,11 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -729,8 +773,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -747,8 +794,11 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -763,8 +813,11 @@
       <c r="F14" s="2">
         <v>44295</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -781,7 +834,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -798,7 +851,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -815,7 +868,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -832,7 +885,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -849,7 +902,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -866,7 +919,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -883,8 +936,11 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -899,8 +955,14 @@
       <c r="F22" s="2">
         <v>44300</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -916,7 +978,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10</v>
+      </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -929,7 +994,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -942,7 +1007,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -955,8 +1020,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
@@ -968,7 +1036,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -979,7 +1047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1082,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -1025,7 +1093,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1038,12 +1109,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -1051,7 +1125,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1095,8 +1169,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C39" t="s">
@@ -1108,7 +1185,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1121,7 +1198,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1132,19 +1209,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1179,10 +1276,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
   <si>
     <t>Task</t>
   </si>
@@ -270,12 +270,15 @@
   </si>
   <si>
     <t>Segunda Prioridad</t>
+  </si>
+  <si>
+    <t>Generar xml de una camapaña</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,15 +653,15 @@
       <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -681,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -698,7 +701,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -715,7 +718,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -732,7 +735,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -749,7 +752,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -769,7 +772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -783,7 +786,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -797,7 +800,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -814,7 +817,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -834,7 +837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -852,7 +855,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -869,7 +872,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -886,7 +889,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -903,7 +906,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -920,7 +923,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -937,7 +940,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -954,7 +957,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -971,7 +974,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -988,7 +991,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1056,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1069,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1082,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1222,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1235,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1243,17 +1246,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>55</v>
       </c>
@@ -1278,18 +1281,18 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
@@ -1307,7 +1310,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
@@ -1467,15 +1470,19 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1483,7 +1490,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1491,7 +1498,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1499,7 +1506,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1507,7 +1514,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1515,7 +1522,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1523,7 +1530,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1531,7 +1538,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1539,7 +1546,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1547,13 +1554,13 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1573,7 +1580,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -251,9 +251,6 @@
     <t>Falta coger datos de Face y Google</t>
   </si>
   <si>
-    <t>FaltaActions en Api y cargar los datos</t>
-  </si>
-  <si>
     <t>Falta Implementar UI</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Segunda Prioridad</t>
+  </si>
+  <si>
+    <t>cargar los datos</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1360,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1368,7 +1368,7 @@
         <v>0.85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <v>44306</v>
       </c>
       <c r="E6" s="9">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>0.6</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>0.15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>0.15</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1549,13 +1549,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="10"/>
     </row>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -273,13 +273,28 @@
   </si>
   <si>
     <t>Generar xml de una camapaña</t>
+  </si>
+  <si>
+    <t>Implementar CRUD en el Backed de "Generar xml de una camapaña"</t>
+  </si>
+  <si>
+    <t>Integrar servicios del Backed y el FrontEnd para "Generar xml de una camapaña"</t>
+  </si>
+  <si>
+    <t>Crear interfaz para crear "Generar xml de una camapaña"</t>
+  </si>
+  <si>
+    <t>Dionis</t>
+  </si>
+  <si>
+    <t>Genear Apk y Acualizable de una campana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +314,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,6 +388,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +671,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A3:G44"/>
+  <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,6 +1283,57 @@
     <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44306</v>
+      </c>
+      <c r="F45" s="14">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="14">
+        <v>44306</v>
+      </c>
+      <c r="F46" s="14">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="14">
+        <v>44306</v>
+      </c>
+      <c r="F47" s="14">
+        <v>44314</v>
       </c>
     </row>
   </sheetData>
@@ -1280,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,10 +1552,18 @@
       <c r="B11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="14">
+        <v>44306</v>
+      </c>
+      <c r="D11" s="14">
+        <v>44314</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>

--- a/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
+++ b/Historias de Ususario/PRODUCT_BARLOCK_ITEM.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TASK" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>Listar Campañas</t>
   </si>
   <si>
-    <t>Falta Implementar Busqueda y Ordenamiento por Columnas.</t>
-  </si>
-  <si>
     <t>Falta Actions en Api, Crear Servicio y finalizar la UI.</t>
   </si>
   <si>
@@ -288,12 +285,15 @@
   </si>
   <si>
     <t>Genear Apk y Acualizable de una campana</t>
+  </si>
+  <si>
+    <t>Falta Vizualizar los Logos de la Campaña. Y Revisar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,19 +673,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="C45" sqref="C45:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -725,7 +725,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -742,7 +742,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -759,7 +759,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -776,7 +776,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -796,7 +796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -824,7 +824,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -841,7 +841,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -861,7 +861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -896,7 +896,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -913,7 +913,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -930,7 +930,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -947,7 +947,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -964,7 +964,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -981,7 +981,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -998,7 +998,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>51</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1270,30 +1270,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
         <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>87</v>
       </c>
       <c r="E45" s="14">
         <v>44306</v>
@@ -1302,15 +1302,15 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
         <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
       </c>
       <c r="E46" s="14">
         <v>44306</v>
@@ -1319,15 +1319,15 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" t="s">
         <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
       </c>
       <c r="E47" s="14">
         <v>44306</v>
@@ -1355,19 +1355,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -1443,13 +1443,13 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="9">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -1504,10 +1504,10 @@
         <v>0.15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
@@ -1524,10 +1524,10 @@
         <v>0.15</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
@@ -1545,12 +1545,12 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="14">
         <v>44306</v>
@@ -1562,10 +1562,10 @@
         <v>0.2</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1573,7 +1573,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1581,7 +1581,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1589,7 +1589,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1597,7 +1597,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1605,7 +1605,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1613,7 +1613,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1621,7 +1621,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1629,7 +1629,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1637,15 +1637,15 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>81</v>
       </c>
       <c r="B23" s="10"/>
     </row>
@@ -1660,10 +1660,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
